--- a/test.xlsx
+++ b/test.xlsx
@@ -1,76 +1,348 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\VisualStudioProjects\excel-editor-python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0063FEEC-CD43-4AF7-80E2-6CE64ACBF3BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>AL03P23N1E60</t>
-  </si>
-  <si>
-    <t>AL02P23N1E61</t>
-  </si>
-  <si>
-    <t>AL02P23N1E62</t>
-  </si>
-  <si>
-    <t>AL02P23N1E64</t>
-  </si>
-  <si>
-    <t>AL02P23N1E65</t>
-  </si>
-  <si>
-    <t>AL03P23N1E66</t>
-  </si>
-  <si>
-    <t>AL02P23N1E68</t>
-  </si>
-  <si>
-    <t>AL02P23N1E69</t>
-  </si>
-  <si>
-    <t>AL02P23N1E70</t>
-  </si>
-  <si>
-    <t>AL02P23N1E71</t>
-  </si>
-  <si>
-    <t>AL02P23N1E72</t>
-  </si>
-  <si>
-    <t>AL02P23N1E74</t>
-  </si>
-  <si>
-    <t>AL03P23N1E63</t>
-  </si>
-  <si>
-    <t>AL03P23N1E67</t>
-  </si>
-  <si>
-    <t>AL03P23N1E73</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+  <si>
+    <t>A03P02N2E01</t>
+  </si>
+  <si>
+    <t>A03P02N2E02</t>
+  </si>
+  <si>
+    <t>A03P02N2E03</t>
+  </si>
+  <si>
+    <t>A03P02N2E04</t>
+  </si>
+  <si>
+    <t>A03P02N2E05</t>
+  </si>
+  <si>
+    <t>A03P02N2E06</t>
+  </si>
+  <si>
+    <t>A03P36N1E02</t>
+  </si>
+  <si>
+    <t>A03P36N1E03</t>
+  </si>
+  <si>
+    <t>A03P36N1E04</t>
+  </si>
+  <si>
+    <t>A03P36N1E05</t>
+  </si>
+  <si>
+    <t>A03P36N1E06</t>
+  </si>
+  <si>
+    <t>A03P36N2E02</t>
+  </si>
+  <si>
+    <t>A03P36N2E03</t>
+  </si>
+  <si>
+    <t>A03P36N2E04</t>
+  </si>
+  <si>
+    <t>A03P36N2E05</t>
+  </si>
+  <si>
+    <t>A03P36N2E06</t>
+  </si>
+  <si>
+    <t>A03P09N1E01</t>
+  </si>
+  <si>
+    <t>A03P09N1E02</t>
+  </si>
+  <si>
+    <t>A03P09N1E03</t>
+  </si>
+  <si>
+    <t>A03P09N1E04</t>
+  </si>
+  <si>
+    <t>A03P09N1E05</t>
+  </si>
+  <si>
+    <t>A03P09N1E06</t>
+  </si>
+  <si>
+    <t>A03P09N2E01</t>
+  </si>
+  <si>
+    <t>A03P09N2E02</t>
+  </si>
+  <si>
+    <t>A03P09N2E03</t>
+  </si>
+  <si>
+    <t>A03P09N2E04</t>
+  </si>
+  <si>
+    <t>A03P09N2E05</t>
+  </si>
+  <si>
+    <t>A03P09N2E06</t>
+  </si>
+  <si>
+    <t>A03P10N1E01</t>
+  </si>
+  <si>
+    <t>A03P10N1E02</t>
+  </si>
+  <si>
+    <t>A03P10N1E03</t>
+  </si>
+  <si>
+    <t>A03P10N1E04</t>
+  </si>
+  <si>
+    <t>A03P10N1E05</t>
+  </si>
+  <si>
+    <t>A03P10N1E06</t>
+  </si>
+  <si>
+    <t>A03P10N2E01</t>
+  </si>
+  <si>
+    <t>A03P10N2E02</t>
+  </si>
+  <si>
+    <t>A03P10N2E03</t>
+  </si>
+  <si>
+    <t>A03P10N2E04</t>
+  </si>
+  <si>
+    <t>A03P10N2E05</t>
+  </si>
+  <si>
+    <t>A03P10N2E06</t>
+  </si>
+  <si>
+    <t>A03P11N1E01</t>
+  </si>
+  <si>
+    <t>A03P11N1E02</t>
+  </si>
+  <si>
+    <t>A03P11N1E03</t>
+  </si>
+  <si>
+    <t>A03P11N1E04</t>
+  </si>
+  <si>
+    <t>A03P11N1E05</t>
+  </si>
+  <si>
+    <t>A03P11N1E06</t>
+  </si>
+  <si>
+    <t>A03P11N2E01</t>
+  </si>
+  <si>
+    <t>A03P11N2E02</t>
+  </si>
+  <si>
+    <t>A03P11N2E03</t>
+  </si>
+  <si>
+    <t>A03P11N2E04</t>
+  </si>
+  <si>
+    <t>A03P11N2E05</t>
+  </si>
+  <si>
+    <t>A03P11N2E06</t>
+  </si>
+  <si>
+    <t>A03P36N1E07</t>
+  </si>
+  <si>
+    <t>A03P38N1E01</t>
+  </si>
+  <si>
+    <t>A03P38N1E02</t>
+  </si>
+  <si>
+    <t>A03P38N1E03</t>
+  </si>
+  <si>
+    <t>A03P38N1E04</t>
+  </si>
+  <si>
+    <t>A03P38N1E05</t>
+  </si>
+  <si>
+    <t>A03P38N1E06</t>
+  </si>
+  <si>
+    <t>A03P38N1E07</t>
+  </si>
+  <si>
+    <t>A03P38N2E01</t>
+  </si>
+  <si>
+    <t>A03P38N2E02</t>
+  </si>
+  <si>
+    <t>A03P38N2E03</t>
+  </si>
+  <si>
+    <t>A03P38N2E04</t>
+  </si>
+  <si>
+    <t>A03P38N2E05</t>
+  </si>
+  <si>
+    <t>A03P38N2E06</t>
+  </si>
+  <si>
+    <t>A03P38N2E07</t>
+  </si>
+  <si>
+    <t>A03P35N1E01</t>
+  </si>
+  <si>
+    <t>A03P35N1E02</t>
+  </si>
+  <si>
+    <t>A03P35N1E03</t>
+  </si>
+  <si>
+    <t>A03P35N1E04</t>
+  </si>
+  <si>
+    <t>A03P35N1E05</t>
+  </si>
+  <si>
+    <t>A03P35N1E06</t>
+  </si>
+  <si>
+    <t>A03P35N1E07</t>
+  </si>
+  <si>
+    <t>A03P35N1E08</t>
+  </si>
+  <si>
+    <t>A03P35N2E01</t>
+  </si>
+  <si>
+    <t>A03P35N2E02</t>
+  </si>
+  <si>
+    <t>A03P35N2E03</t>
+  </si>
+  <si>
+    <t>A03P35N2E04</t>
+  </si>
+  <si>
+    <t>A03P35N2E05</t>
+  </si>
+  <si>
+    <t>A03P35N2E06</t>
+  </si>
+  <si>
+    <t>A03P35N2E07</t>
+  </si>
+  <si>
+    <t>A03P35N2E08</t>
+  </si>
+  <si>
+    <t>A03P05N1E01</t>
+  </si>
+  <si>
+    <t>A03P05N1E02</t>
+  </si>
+  <si>
+    <t>A03P05N1E03</t>
+  </si>
+  <si>
+    <t>A03P05N1E04</t>
+  </si>
+  <si>
+    <t>A03P05N1E05</t>
+  </si>
+  <si>
+    <t>A03P05N1E06</t>
+  </si>
+  <si>
+    <t>A03P05N2E01</t>
+  </si>
+  <si>
+    <t>A03P05N2E02</t>
+  </si>
+  <si>
+    <t>A03P05N2E03</t>
+  </si>
+  <si>
+    <t>A03P05N2E04</t>
+  </si>
+  <si>
+    <t>A03P05N2E05</t>
+  </si>
+  <si>
+    <t>A03P05N2E06</t>
+  </si>
+  <si>
+    <t>A03P01N1E01</t>
+  </si>
+  <si>
+    <t>A03P01N1E02</t>
+  </si>
+  <si>
+    <t>A03P01N1E03</t>
+  </si>
+  <si>
+    <t>A03P01N1E04</t>
+  </si>
+  <si>
+    <t>A03P01N1E05</t>
+  </si>
+  <si>
+    <t>A03P01N1E06</t>
+  </si>
+  <si>
+    <t>A03P01N2E01</t>
+  </si>
+  <si>
+    <t>A03P01N2E02</t>
+  </si>
+  <si>
+    <t>A03P01N2E03</t>
+  </si>
+  <si>
+    <t>A03P01N2E04</t>
+  </si>
+  <si>
+    <t>A03P01N2E05</t>
+  </si>
+  <si>
+    <t>A03P01N2E06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -96,33 +368,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -132,28 +415,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -255,6 +538,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -265,31 +549,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -311,7 +595,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -369,7 +653,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -382,12 +666,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -405,100 +690,578 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>